--- a/tests/functional/Sheet/data/users-with-2-headers.xlsx
+++ b/tests/functional/Sheet/data/users-with-2-headers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">My company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My company description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users in company</t>
   </si>
   <si>
     <t xml:space="preserve">first name</t>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t xml:space="preserve">dupont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bernard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durand</t>
   </si>
 </sst>
 </file>
@@ -151,12 +163,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -166,16 +178,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,19 +212,35 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -221,7 +250,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
